--- a/public/assets/excel/orderwing/domeatoz/2023-11-05_2024-01-04.xlsx
+++ b/public/assets/excel/orderwing/domeatoz/2023-11-05_2024-01-04.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>상태</t>
   </si>
@@ -110,6 +110,54 @@
     <t>배송준비</t>
   </si>
   <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>디오스스토어</t>
+  </si>
+  <si>
+    <t>010-3728-8206</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>010-9383-0980</t>
+  </si>
+  <si>
+    <t>15519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 안산시 상록구 반월천북길 139-18 (팔곡일동, 안산이풀식물박물관) 3층 식물공방 </t>
+  </si>
+  <si>
+    <t>AZ01948244</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>두문 누드화이트보드70x50cm</t>
+  </si>
+  <si>
+    <t>10,496</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>13,996</t>
+  </si>
+  <si>
+    <t>1704334200090BC5UGDRU</t>
+  </si>
+  <si>
+    <t>선불</t>
+  </si>
+  <si>
+    <t>HASCX</t>
+  </si>
+  <si>
     <t>2024-01-03</t>
   </si>
   <si>
@@ -134,25 +182,16 @@
     <t>AZ01948377</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>안전보조손잡이 세면대 분리형 U형</t>
   </si>
   <si>
     <t>41,907</t>
   </si>
   <si>
-    <t>3,500</t>
-  </si>
-  <si>
     <t>45,407</t>
   </si>
   <si>
     <t>17042976886943EFA572O</t>
-  </si>
-  <si>
-    <t>선불</t>
   </si>
   <si>
     <t>문 앞에 놓아주세요 공동현관 출입번호 #25046326</t>
@@ -530,14 +569,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="6.03515625" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
     <col min="4" max="4" width="17.734375" customWidth="1"/>
     <col min="5" max="5" width="6.03515625" customWidth="1"/>
     <col min="6" max="6" width="17.734375" customWidth="1"/>
@@ -732,33 +771,122 @@
         <v>47</v>
       </c>
       <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AF2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF3"/>
   </ignoredErrors>
 </worksheet>
 </file>